--- a/Dhruv-annotations/AMD_Q4_2019.xlsx
+++ b/Dhruv-annotations/AMD_Q4_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13C2C8-7A16-8541-9E35-4D0D8BC5A743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D1A2D-6D21-654A-963C-D554D248916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,6 +340,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,7 +688,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
